--- a/JPADSandBox_v2/out/AIRBUS A-320/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/AIRBUS A-320/WEIGHTS/Weights.xlsx
@@ -308,7 +308,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3500.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,7 +330,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>62623.662049030056</v>
+        <v>68885.4928957218</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +357,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>58543.662049030056</v>
+        <v>64645.49289572181</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +368,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>60744.952187559145</v>
+        <v>66818.92810885014</v>
       </c>
     </row>
     <row r="9">
@@ -379,7 +379,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9180.0</v>
+        <v>9540.0</v>
       </c>
     </row>
     <row r="10">
@@ -390,7 +390,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>14040.123966321942</v>
+        <v>17638.63418025324</v>
       </c>
     </row>
     <row r="11">
@@ -401,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>19927.470605943294</v>
+        <v>23212.319159666004</v>
       </c>
     </row>
     <row r="12">
@@ -423,7 +423,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>42696.19144308676</v>
+        <v>45673.17373605581</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>38616.19144308676</v>
+        <v>41433.17373605581</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>33516.19144308677</v>
+        <v>36133.17373605582</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>32973.52948721915</v>
+        <v>35559.202614714595</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>31939.34779758677</v>
+        <v>34556.33009055581</v>
       </c>
     </row>
     <row r="18">
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>313.11831036761055</v>
+        <v>344.4274758412121</v>
       </c>
     </row>
     <row r="20">
@@ -505,7 +505,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>614128.3354331204</v>
+        <v>675535.91890583</v>
       </c>
     </row>
     <row r="22">
@@ -516,7 +516,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>574117.2034331204</v>
+        <v>633955.72290583</v>
       </c>
     </row>
     <row r="23">
@@ -527,7 +527,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>595704.4853701268</v>
+        <v>655269.841338655</v>
       </c>
     </row>
     <row r="24">
@@ -538,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>90025.04699999996</v>
+        <v>93555.44099999996</v>
       </c>
     </row>
     <row r="25">
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>137686.58169433102</v>
+        <v>172975.91188378038</v>
       </c>
     </row>
     <row r="26">
@@ -571,7 +571,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>418706.6058153467</v>
+        <v>447900.82921869156</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>378695.4738153467</v>
+        <v>406320.63321869157</v>
       </c>
     </row>
     <row r="29">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>328681.5588153468</v>
+        <v>354345.3882186917</v>
       </c>
     </row>
     <row r="30">
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>323359.86294583755</v>
+        <v>348716.6543215908</v>
       </c>
     </row>
     <row r="31">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>313218.0050792042</v>
+        <v>338881.8344825491</v>
       </c>
     </row>
     <row r="32">
@@ -637,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>3070.6416783665272</v>
+        <v>3377.6797059582213</v>
       </c>
     </row>
   </sheetData>
@@ -711,10 +711,10 @@
         <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>9569.0</v>
+        <v>9743.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.668073136427611</v>
+        <v>9.625879043600607</v>
       </c>
     </row>
     <row r="7">
@@ -725,10 +725,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>6936.0</v>
+        <v>7210.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-21.957805907172965</v>
+        <v>-18.874824191279856</v>
       </c>
     </row>
     <row r="8">
@@ -739,10 +739,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>6391.0</v>
+        <v>6703.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-28.09001406469758</v>
+        <v>-24.57946554149083</v>
       </c>
     </row>
     <row r="9">
@@ -753,10 +753,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>6417.0</v>
+        <v>7121.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-27.79746835443035</v>
+        <v>-19.876230661040758</v>
       </c>
     </row>
     <row r="10">
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7567.333333333332</v>
+        <v>7811.333333333332</v>
       </c>
       <c r="D12" t="n">
-        <v>-14.854195968119999</v>
+        <v>-12.108766994842924</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -883,10 +883,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>1349.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-77.23206751054852</v>
+        <v>-99.99999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -897,10 +897,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>6085.0</v>
+        <v>6387.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.7004219409283015</v>
+        <v>7.797468354430412</v>
       </c>
     </row>
     <row r="9">
@@ -925,10 +925,10 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>7285.0</v>
+        <v>7361.0</v>
       </c>
       <c r="D10" t="n">
-        <v>22.95358649789033</v>
+        <v>24.23628691983126</v>
       </c>
     </row>
     <row r="11">
@@ -981,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>5904.0</v>
+        <v>5765.285714285714</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.35443037974682007</v>
+        <v>-2.695599758890876</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1083,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>273.0</v>
+        <v>276.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-69.28270042194092</v>
+        <v>-68.94514767932489</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>524.0</v>
+        <v>556.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-41.04078762306609</v>
+        <v>-37.44022503516173</v>
       </c>
     </row>
     <row r="10">
@@ -1111,10 +1111,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>473.33333333333326</v>
+        <v>485.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-46.74167838724799</v>
+        <v>-45.428973277074526</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.83</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1283,10 +1283,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>698.6666666666665</v>
+        <v>893.3333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>-73.79590561025158</v>
+        <v>-66.49476480700108</v>
       </c>
     </row>
     <row r="4">
@@ -1326,10 +1326,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>163.0</v>
+        <v>225.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-63.31926863572432</v>
+        <v>-49.36708860759492</v>
       </c>
     </row>
     <row r="10">
@@ -1340,10 +1340,10 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.63994374120955</v>
+        <v>-34.96483825597748</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>599.0</v>
+        <v>826.0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.79606188466951</v>
+        <v>85.87904360056264</v>
       </c>
     </row>
     <row r="12">
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>349.33333333333326</v>
+        <v>446.66666666666663</v>
       </c>
     </row>
     <row r="13">
@@ -1398,10 +1398,10 @@
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>163.0</v>
+        <v>225.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-63.31926863572432</v>
+        <v>-49.36708860759492</v>
       </c>
     </row>
     <row r="17">
@@ -1412,10 +1412,10 @@
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-35.63994374120955</v>
+        <v>-34.96483825597748</v>
       </c>
     </row>
     <row r="18">
@@ -1426,10 +1426,10 @@
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>599.0</v>
+        <v>826.0</v>
       </c>
       <c r="D18" t="n">
-        <v>34.79606188466951</v>
+        <v>85.87904360056264</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>349.33333333333326</v>
+        <v>446.66666666666663</v>
       </c>
     </row>
     <row r="20">
@@ -1495,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>7074.654380764683</v>
+        <v>9140.767626114684</v>
       </c>
     </row>
     <row r="4">
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3537.3271903823425</v>
+        <v>4570.383813057342</v>
       </c>
     </row>
     <row r="10">
@@ -1569,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>3537.3271903823425</v>
+        <v>4570.383813057342</v>
       </c>
     </row>
     <row r="14">
@@ -1637,10 +1637,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1771.0</v>
+        <v>1918.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-25.2742616033755</v>
+        <v>-19.07172995780588</v>
       </c>
     </row>
     <row r="6">
@@ -1651,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2505.0</v>
+        <v>2755.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.69620253164561</v>
+        <v>16.244725738396667</v>
       </c>
     </row>
     <row r="7">
@@ -1665,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2876.0</v>
+        <v>3183.0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.35021097046418</v>
+        <v>34.30379746835448</v>
       </c>
     </row>
     <row r="8">
@@ -1679,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2538.0</v>
+        <v>2791.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.08860759493675</v>
+        <v>17.76371308016882</v>
       </c>
     </row>
     <row r="9">
@@ -1693,10 +1693,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2422.5</v>
+        <v>2661.75</v>
       </c>
       <c r="D9" t="n">
-        <v>2.215189873417741</v>
+        <v>12.310126582278501</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/AIRBUS A-320/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/AIRBUS A-320/WEIGHTS/Weights.xlsx
@@ -346,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>68885.4928957218</v>
+        <v>71762.6672440301</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +357,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>64645.49289572181</v>
+        <v>67522.6672440301</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +368,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>66818.92810885014</v>
+        <v>69609.7872267092</v>
       </c>
     </row>
     <row r="9">
@@ -390,7 +390,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>17638.63418025324</v>
+        <v>18075.552907740297</v>
       </c>
     </row>
     <row r="11">
@@ -401,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>23212.319159666004</v>
+        <v>24181.838746069552</v>
       </c>
     </row>
     <row r="12">
@@ -423,7 +423,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>45673.17373605581</v>
+        <v>47580.82849796057</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>41433.17373605581</v>
+        <v>43340.82849796057</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>36133.17373605582</v>
+        <v>38040.828497960574</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>35559.202614714595</v>
+        <v>37452.47151617918</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>34556.33009055581</v>
+        <v>36463.98485246058</v>
       </c>
     </row>
     <row r="18">
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>344.4274758412121</v>
+        <v>358.81333628137986</v>
       </c>
     </row>
     <row r="20">
@@ -505,7 +505,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>675535.91890583</v>
+        <v>703751.3607286676</v>
       </c>
     </row>
     <row r="22">
@@ -516,7 +516,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>633955.72290583</v>
+        <v>662171.1647286676</v>
       </c>
     </row>
     <row r="23">
@@ -527,7 +527,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>655269.841338655</v>
+        <v>682638.8199068075</v>
       </c>
     </row>
     <row r="24">
@@ -549,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>172975.91188378038</v>
+        <v>177260.6209226913</v>
       </c>
     </row>
     <row r="26">
@@ -571,7 +571,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>447900.82921869156</v>
+        <v>466608.53178952483</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>406320.63321869157</v>
+        <v>425028.33578952483</v>
       </c>
     </row>
     <row r="29">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>354345.3882186917</v>
+        <v>373053.09078952495</v>
       </c>
     </row>
     <row r="30">
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>348716.6543215908</v>
+        <v>367283.2797941385</v>
       </c>
     </row>
     <row r="31">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>338881.8344825491</v>
+        <v>357589.53705338243</v>
       </c>
     </row>
     <row r="32">
@@ -637,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>3377.6797059582213</v>
+        <v>3518.7568042437924</v>
       </c>
     </row>
   </sheetData>
@@ -713,9 +713,7 @@
       <c r="C6" t="n">
         <v>9743.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>9.625879043600607</v>
-      </c>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -725,11 +723,9 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>7210.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-18.874824191279856</v>
-      </c>
+        <v>7304.0</v>
+      </c>
+      <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -739,11 +735,9 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>6703.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-24.57946554149083</v>
-      </c>
+        <v>6842.0</v>
+      </c>
+      <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -753,11 +747,9 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>7121.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-19.876230661040758</v>
-      </c>
+        <v>7403.0</v>
+      </c>
+      <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -769,9 +761,7 @@
       <c r="C10" t="n">
         <v>7398.0</v>
       </c>
-      <c r="D10" t="n">
-        <v>-16.759493670886044</v>
-      </c>
+      <c r="D10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -783,9 +773,7 @@
       <c r="C11" t="n">
         <v>8693.0</v>
       </c>
-      <c r="D11" t="n">
-        <v>-2.188466947960579</v>
-      </c>
+      <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -795,10 +783,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7811.333333333332</v>
+        <v>8693.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.108766994842924</v>
+        <v>-2.1884669479605887</v>
       </c>
     </row>
   </sheetData>
@@ -897,10 +885,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>6387.0</v>
+        <v>6380.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.797468354430412</v>
+        <v>7.679324894514801</v>
       </c>
     </row>
     <row r="9">
@@ -967,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>6694.0</v>
+        <v>6523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.978902953586532</v>
+        <v>10.092827004219442</v>
       </c>
     </row>
     <row r="14">
@@ -981,10 +969,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>5765.285714285714</v>
+        <v>5739.857142857143</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.695599758890876</v>
+        <v>-3.124773960216978</v>
       </c>
     </row>
   </sheetData>
@@ -1097,10 +1085,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>556.0</v>
+        <v>571.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-37.44022503516173</v>
+        <v>-35.75246132208156</v>
       </c>
     </row>
     <row r="10">
@@ -1111,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>485.0</v>
+        <v>623.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-45.428973277074526</v>
+        <v>-29.901547116736964</v>
       </c>
     </row>
   </sheetData>
@@ -1213,10 +1201,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>427.0</v>
+        <v>421.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-51.95499296765119</v>
+        <v>-52.63009845288325</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1215,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>471.0</v>
+        <v>515.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.004219409282676</v>
+        <v>-42.05344585091419</v>
       </c>
     </row>
   </sheetData>
@@ -1283,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>893.3333333333333</v>
+        <v>1652.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-66.49476480700108</v>
+        <v>-38.04031879981244</v>
       </c>
     </row>
     <row r="4">
@@ -1368,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>446.66666666666663</v>
+        <v>826.0</v>
       </c>
     </row>
     <row r="13">
@@ -1440,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>446.66666666666663</v>
+        <v>826.0</v>
       </c>
     </row>
     <row r="20">
@@ -1637,10 +1625,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1918.0</v>
+        <v>1986.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.07172995780588</v>
+        <v>-16.20253164556959</v>
       </c>
     </row>
     <row r="6">
@@ -1651,10 +1639,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2755.0</v>
+        <v>2871.0</v>
       </c>
       <c r="D6" t="n">
-        <v>16.244725738396667</v>
+        <v>21.13924050632916</v>
       </c>
     </row>
     <row r="7">
@@ -1665,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3183.0</v>
+        <v>3325.0</v>
       </c>
       <c r="D7" t="n">
-        <v>34.30379746835448</v>
+        <v>40.29535864978908</v>
       </c>
     </row>
     <row r="8">
@@ -1679,10 +1667,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2791.0</v>
+        <v>2908.0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.76371308016882</v>
+        <v>22.700421940928315</v>
       </c>
     </row>
     <row r="9">
@@ -1693,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2661.75</v>
+        <v>2772.5</v>
       </c>
       <c r="D9" t="n">
-        <v>12.310126582278501</v>
+        <v>16.983122362869217</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/AIRBUS A-320/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/AIRBUS A-320/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Maximum Passengers Mass</t>
   </si>
   <si>
+    <t>Actual Passengers Mass</t>
+  </si>
+  <si>
     <t>Maximum Fuel Mass</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Operating Item Mass</t>
   </si>
   <si>
+    <t>Furnishings and Equipments Mass</t>
+  </si>
+  <si>
     <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
+    <t>Actual Passengers Weight</t>
+  </si>
+  <si>
     <t>Fuel Weight</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>Operating Item Weight</t>
+  </si>
+  <si>
+    <t>Furnishings and Equipments Weight</t>
   </si>
   <si>
     <t>Trapped Fuel Oil Weight</t>
@@ -330,7 +342,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>106.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>71762.6672440301</v>
+        <v>85946.93518985753</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>67522.6672440301</v>
+        <v>85946.93518985753</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>69609.7872267092</v>
+        <v>83368.52713416179</v>
       </c>
     </row>
     <row r="9">
@@ -379,7 +391,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9540.0</v>
+        <v>16560.0</v>
       </c>
     </row>
     <row r="10">
@@ -390,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>18075.552907740297</v>
+        <v>16560.0</v>
       </c>
     </row>
     <row r="11">
@@ -401,7 +413,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>24181.838746069552</v>
+        <v>18075.552907740297</v>
       </c>
     </row>
     <row r="12">
@@ -412,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>229.54364550000003</v>
+        <v>28961.50611947364</v>
       </c>
     </row>
     <row r="13">
@@ -423,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>47580.82849796057</v>
+        <v>612.1163879999999</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>43340.82849796057</v>
+        <v>56985.4290703839</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>38040.828497960574</v>
+        <v>56985.4290703839</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>37452.47151617918</v>
+        <v>40425.42907038391</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>36463.98485246058</v>
+        <v>39383.57800655611</v>
       </c>
     </row>
     <row r="18">
@@ -478,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1347.2999999999997</v>
+        <v>37118.712682383906</v>
       </c>
     </row>
     <row r="19">
@@ -489,45 +501,45 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>358.81333628137986</v>
+        <v>2694.5999999999995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2885.0849727804743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>703751.3607286676</v>
+        <v>429.7346758277837</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>662171.1647286676</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
       <c r="C23" t="n">
-        <v>682638.8199068075</v>
+        <v>842851.511979616</v>
       </c>
     </row>
     <row r="24">
@@ -535,10 +547,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>93555.44099999996</v>
+        <v>842851.511979616</v>
       </c>
     </row>
     <row r="25">
@@ -546,10 +558,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>177260.6209226913</v>
+        <v>817565.9666202276</v>
       </c>
     </row>
     <row r="26">
@@ -557,10 +569,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>2251.0541911425744</v>
+        <v>162398.12399999995</v>
       </c>
     </row>
     <row r="27">
@@ -568,10 +580,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>466608.53178952483</v>
+        <v>162398.12399999995</v>
       </c>
     </row>
     <row r="28">
@@ -579,10 +591,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>425028.33578952483</v>
+        <v>177260.6209226913</v>
       </c>
     </row>
     <row r="29">
@@ -590,10 +602,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>373053.09078952495</v>
+        <v>6002.811176380199</v>
       </c>
     </row>
     <row r="30">
@@ -601,10 +613,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>367283.2797941385</v>
+        <v>558836.1579930801</v>
       </c>
     </row>
     <row r="31">
@@ -612,10 +624,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>357589.53705338243</v>
+        <v>558836.1579930801</v>
       </c>
     </row>
     <row r="32">
@@ -623,10 +635,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>13212.499544999991</v>
+        <v>396438.03399308026</v>
       </c>
     </row>
     <row r="33">
@@ -634,10 +646,54 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>3518.7568042437924</v>
+        <v>386220.9652579933</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>364010.22372670006</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26424.999089999983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>28293.018548317632</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4214.257558706533</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +724,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -684,7 +740,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -700,15 +756,15 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>9743.0</v>
@@ -717,46 +773,46 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>7304.0</v>
+        <v>7730.0</v>
       </c>
       <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>6842.0</v>
+        <v>7487.0</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>7403.0</v>
+        <v>8786.0</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>7398.0</v>
@@ -765,10 +821,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>8693.0</v>
@@ -777,7 +833,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -817,12 +873,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -833,7 +889,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -844,7 +900,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -860,15 +916,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -879,24 +935,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>6380.0</v>
+        <v>7144.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.679324894514801</v>
+        <v>20.573839662447295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>5934.0</v>
@@ -907,10 +963,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>7361.0</v>
@@ -921,10 +977,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>5467.0</v>
@@ -935,10 +991,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>8514.0</v>
@@ -949,10 +1005,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>6523.0</v>
@@ -963,16 +1019,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>5739.857142857143</v>
+        <v>5849.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.124773960216978</v>
+        <v>-1.2827004219409128</v>
       </c>
     </row>
   </sheetData>
@@ -1003,12 +1059,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1019,7 +1075,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1030,7 +1086,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1046,15 +1102,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>623.0</v>
@@ -1065,35 +1121,35 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>276.0</v>
+        <v>284.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-68.94514767932489</v>
+        <v>-68.04500703234879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>571.0</v>
+        <v>641.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.75246132208156</v>
+        <v>-27.876230661040772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1133,12 +1189,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1149,7 +1205,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1160,7 +1216,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1176,15 +1232,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>515.0</v>
@@ -1195,10 +1251,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>421.0</v>
@@ -1209,7 +1265,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1249,12 +1305,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1265,7 +1321,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1284,7 +1340,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1294,12 +1350,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1308,10 +1364,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>225.0</v>
@@ -1322,10 +1378,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>289.0</v>
@@ -1336,10 +1392,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>826.0</v>
@@ -1350,7 +1406,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1366,12 +1422,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1380,10 +1436,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>225.0</v>
@@ -1394,10 +1450,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>289.0</v>
@@ -1408,10 +1464,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>826.0</v>
@@ -1422,7 +1478,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1466,7 +1522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1477,7 +1533,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1493,7 +1549,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1503,12 +1559,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1519,7 +1575,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1535,12 +1591,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1551,7 +1607,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1593,12 +1649,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1614,77 +1670,77 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1986.0</v>
+        <v>2310.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-16.20253164556959</v>
+        <v>-2.5316455696202156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2871.0</v>
+        <v>3438.0</v>
       </c>
       <c r="D6" t="n">
-        <v>21.13924050632916</v>
+        <v>45.06329113924056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3325.0</v>
+        <v>4041.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.29535864978908</v>
+        <v>70.50632911392411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2908.0</v>
+        <v>3483.0</v>
       </c>
       <c r="D8" t="n">
-        <v>22.700421940928315</v>
+        <v>46.96202531645575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2772.5</v>
+        <v>3318.0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.983122362869217</v>
+        <v>40.00000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1715,12 +1771,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1736,12 +1792,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1755,7 +1811,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
